--- a/Exercise 1.xlsx
+++ b/Exercise 1.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrymiessan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrymiessan/Desktop/Excel lesson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F765184B-6DA8-8B48-BE9D-F52019C73305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E041C7-4C67-0642-9670-53E7F6CB7A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="26740" windowHeight="13760" xr2:uid="{C8F09219-996F-7943-B642-BA8953ACAE75}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -91,7 +91,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -261,9 +261,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -282,16 +289,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -607,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7F566E-A2C4-4B45-A4BD-DF52C6B876F7}">
-  <dimension ref="B1:Q18"/>
+  <dimension ref="B1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E17:E18"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -621,220 +620,210 @@
     <col min="7" max="7" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:17" ht="48" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:7" ht="48" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:17" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="5" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:7" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B7" s="8" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B8" s="8" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="1">
         <v>1179</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="1">
         <v>1012</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="1">
         <v>611</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="1">
         <v>535</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="4">
         <f>SUM(C8:F8)</f>
         <v>3337</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="1">
         <v>982</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="1">
         <v>920</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="1">
         <v>548</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="1">
         <v>558</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="4">
         <f>SUM(C9:C9:D9:E9:F9)</f>
         <v>3008</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="1">
         <v>1148</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="1">
         <v>1100</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="1">
         <v>664</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="1">
         <v>584</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="4">
         <f>SUM(C10:F10)</f>
         <v>3496</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B11" s="8" t="s">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="1">
         <v>983</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="1">
         <v>980</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="1">
         <v>701</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="1">
         <v>631</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="4">
         <f>SUM(C11:F11)</f>
         <v>3295</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B12" s="8" t="s">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="1">
         <v>1283</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="1">
         <v>893</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="1">
         <v>789</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="1">
         <v>603</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="4">
         <f>SUM(C12:F12)</f>
         <v>3568</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="10" t="s">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="5">
         <f>SUM(C8:C9:C10:C11:C12)</f>
         <v>5575</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="5">
         <f>SUM(D8:D9:D10:D11:D12)</f>
         <v>4905</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="5">
         <f>SUM(E8:E9:E10:E11:E12)</f>
         <v>3313</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="5">
         <f>SUM(F8:F9:F10:F11:F12)</f>
         <v>2911</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="6">
         <f>SUM(G8:G9:G10:G11:G12)</f>
         <v>16704</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="E17" s="16">
+      <c r="C17" s="16"/>
+      <c r="E17" s="7">
         <f>MAX(G8:G9:G10:G11:G12)</f>
         <v>3568</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="E18" s="17">
+      <c r="C18" s="16"/>
+      <c r="E18" s="8">
         <f>MIN(C15:D15:E15:F15:G15)</f>
         <v>2911</v>
       </c>
